--- a/PriseEnCompteIssuesSurPublication20240918/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
+++ b/PriseEnCompteIssuesSurPublication20240918/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T12:55:56+00:00</t>
+    <t>2024-09-18T14:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/PriseEnCompteIssuesSurPublication20240918/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
+++ b/PriseEnCompteIssuesSurPublication20240918/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:07:06+00:00</t>
+    <t>2024-09-18T15:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/PriseEnCompteIssuesSurPublication20240918/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
+++ b/PriseEnCompteIssuesSurPublication20240918/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:06:02+00:00</t>
+    <t>2024-10-21T12:37:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
